--- a/data/transformed_data_2004.xlsx
+++ b/data/transformed_data_2004.xlsx
@@ -2372,7 +2372,7 @@
         <v>13</v>
       </c>
       <c r="D131">
-        <v>223106.1392039829</v>
+        <v>225537.0488039829</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -2708,7 +2708,7 @@
         <v>13</v>
       </c>
       <c r="D155">
-        <v>24620.54</v>
+        <v>21173.6644</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -2876,7 +2876,7 @@
         <v>13</v>
       </c>
       <c r="D167">
-        <v>7256.9</v>
+        <v>6240.934</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -5115,7 +5115,7 @@
         <v>13</v>
       </c>
       <c r="D131">
-        <v>12409.30484096728</v>
+        <v>12224.22204096728</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -5451,7 +5451,7 @@
         <v>13</v>
       </c>
       <c r="D155">
-        <v>42.14</v>
+        <v>36.24039999999999</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -5619,7 +5619,7 @@
         <v>13</v>
       </c>
       <c r="D167">
-        <v>1364.16</v>
+        <v>1173.1776</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -7844,7 +7844,7 @@
         <v>13</v>
       </c>
       <c r="D131">
-        <v>24042.17126714082</v>
+        <v>24697.98726714082</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -8180,7 +8180,7 @@
         <v>13</v>
       </c>
       <c r="D155">
-        <v>12044.2</v>
+        <v>10358.012</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -8348,7 +8348,7 @@
         <v>13</v>
       </c>
       <c r="D167">
-        <v>7359.8</v>
+        <v>6329.427999999999</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -10587,7 +10587,7 @@
         <v>13</v>
       </c>
       <c r="D131">
-        <v>12902.6986799431</v>
+        <v>13016.9862799431</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -10923,7 +10923,7 @@
         <v>13</v>
       </c>
       <c r="D155">
-        <v>1829.66</v>
+        <v>1573.5076</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -11091,7 +11091,7 @@
         <v>13</v>
       </c>
       <c r="D167">
-        <v>1013.32</v>
+        <v>871.4552</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -13316,7 +13316,7 @@
         <v>13</v>
       </c>
       <c r="D131">
-        <v>13052.33068392603</v>
+        <v>13183.21948392603</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -13652,7 +13652,7 @@
         <v>13</v>
       </c>
       <c r="D155">
-        <v>7916.44</v>
+        <v>6808.1384</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -13820,7 +13820,7 @@
         <v>13</v>
       </c>
       <c r="D167">
-        <v>6981.52</v>
+        <v>6004.1072</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -16059,7 +16059,7 @@
         <v>13</v>
       </c>
       <c r="D131">
-        <v>5150.88</v>
+        <v>5090.6492</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -16395,7 +16395,7 @@
         <v>13</v>
       </c>
       <c r="D155">
-        <v>99.95999999999999</v>
+        <v>85.96559999999999</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -16563,7 +16563,7 @@
         <v>13</v>
       </c>
       <c r="D167">
-        <v>530.1799999999999</v>
+        <v>455.9548</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -18788,7 +18788,7 @@
         <v>13</v>
       </c>
       <c r="D131">
-        <v>15381.61188620199</v>
+        <v>15302.17308620199</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -19124,7 +19124,7 @@
         <v>13</v>
       </c>
       <c r="D155">
-        <v>9864.68</v>
+        <v>8483.6248</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -19292,7 +19292,7 @@
         <v>13</v>
       </c>
       <c r="D167">
-        <v>10432.1</v>
+        <v>8971.606</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -21531,7 +21531,7 @@
         <v>13</v>
       </c>
       <c r="D131">
-        <v>19199.88431749644</v>
+        <v>19187.81071749645</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -21867,7 +21867,7 @@
         <v>13</v>
       </c>
       <c r="D155">
-        <v>7103.04</v>
+        <v>6108.614399999999</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -22035,7 +22035,7 @@
         <v>13</v>
       </c>
       <c r="D167">
-        <v>7189.28</v>
+        <v>6182.7808</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -24274,7 +24274,7 @@
         <v>13</v>
       </c>
       <c r="D131">
-        <v>17252.31743669986</v>
+        <v>16896.96943669986</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -24610,7 +24610,7 @@
         <v>13</v>
       </c>
       <c r="D155">
-        <v>7085.4</v>
+        <v>6093.444</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -24778,7 +24778,7 @@
         <v>13</v>
       </c>
       <c r="D167">
-        <v>9623.6</v>
+        <v>8276.296</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -27017,7 +27017,7 @@
         <v>13</v>
       </c>
       <c r="D131">
-        <v>5938.768968990043</v>
+        <v>5800.608568990043</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -27353,7 +27353,7 @@
         <v>13</v>
       </c>
       <c r="D155">
-        <v>797.72</v>
+        <v>686.0391999999999</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -27521,7 +27521,7 @@
         <v>13</v>
       </c>
       <c r="D167">
-        <v>1784.58</v>
+        <v>1534.7388</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -29746,7 +29746,7 @@
         <v>13</v>
       </c>
       <c r="D131">
-        <v>5872.798826173541</v>
+        <v>5992.300026173541</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -30082,7 +30082,7 @@
         <v>13</v>
       </c>
       <c r="D155">
-        <v>5705.559999999999</v>
+        <v>4906.7816</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -30250,7 +30250,7 @@
         <v>13</v>
       </c>
       <c r="D167">
-        <v>4851.98</v>
+        <v>4172.7028</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -32489,7 +32489,7 @@
         <v>13</v>
       </c>
       <c r="D131">
-        <v>29704.83212261735</v>
+        <v>29809.37852261735</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -32825,7 +32825,7 @@
         <v>13</v>
       </c>
       <c r="D155">
-        <v>1724.8</v>
+        <v>1483.328</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -32993,7 +32993,7 @@
         <v>13</v>
       </c>
       <c r="D167">
-        <v>978.04</v>
+        <v>841.1143999999999</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -35204,7 +35204,7 @@
         <v>13</v>
       </c>
       <c r="D131">
-        <v>4671.980599434946</v>
+        <v>4654.556199434946</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -35540,7 +35540,7 @@
         <v>13</v>
       </c>
       <c r="D155">
-        <v>258.72</v>
+        <v>222.4992</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -35708,7 +35708,7 @@
         <v>13</v>
       </c>
       <c r="D167">
-        <v>383.18</v>
+        <v>329.5348</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -37933,7 +37933,7 @@
         <v>13</v>
       </c>
       <c r="D131">
-        <v>6019.471100378754</v>
+        <v>5860.044700378754</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -38269,7 +38269,7 @@
         <v>13</v>
       </c>
       <c r="D155">
-        <v>29.4</v>
+        <v>25.284</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -38437,7 +38437,7 @@
         <v>13</v>
       </c>
       <c r="D167">
-        <v>1168.16</v>
+        <v>1004.6176</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -40662,7 +40662,7 @@
         <v>13</v>
       </c>
       <c r="D131">
-        <v>3486.867852631579</v>
+        <v>3467.934252631579</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -40998,7 +40998,7 @@
         <v>13</v>
       </c>
       <c r="D155">
-        <v>3019.38</v>
+        <v>2596.6668</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -41166,7 +41166,7 @@
         <v>13</v>
       </c>
       <c r="D167">
-        <v>3154.62</v>
+        <v>2712.9732</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -43405,7 +43405,7 @@
         <v>13</v>
       </c>
       <c r="D131">
-        <v>4090.750314378016</v>
+        <v>4034.498314378016</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -43741,7 +43741,7 @@
         <v>13</v>
       </c>
       <c r="D155">
-        <v>6362.16</v>
+        <v>5471.4576</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -43909,7 +43909,7 @@
         <v>13</v>
       </c>
       <c r="D167">
-        <v>6763.96</v>
+        <v>5817.0056</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -46148,7 +46148,7 @@
         <v>13</v>
       </c>
       <c r="D131">
-        <v>14723.48029815078</v>
+        <v>14232.85309815078</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -46484,7 +46484,7 @@
         <v>13</v>
       </c>
       <c r="D155">
-        <v>6654.2</v>
+        <v>5722.611999999999</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -46652,7 +46652,7 @@
         <v>13</v>
       </c>
       <c r="D167">
-        <v>10158.68</v>
+        <v>8736.4648</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -48891,7 +48891,7 @@
         <v>13</v>
       </c>
       <c r="D131">
-        <v>2949.14840455192</v>
+        <v>2978.783604551921</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -49227,7 +49227,7 @@
         <v>13</v>
       </c>
       <c r="D155">
-        <v>4478.6</v>
+        <v>3851.596</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -49395,7 +49395,7 @@
         <v>13</v>
       </c>
       <c r="D167">
-        <v>4266.92</v>
+        <v>3669.5512</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -51606,7 +51606,7 @@
         <v>13</v>
       </c>
       <c r="D131">
-        <v>7306.401514651494</v>
+        <v>6996.055114651494</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -51942,7 +51942,7 @@
         <v>13</v>
       </c>
       <c r="D155">
-        <v>590.9399999999999</v>
+        <v>508.2084</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -52110,7 +52110,7 @@
         <v>13</v>
       </c>
       <c r="D167">
-        <v>2807.7</v>
+        <v>2414.622</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -54321,7 +54321,7 @@
         <v>13</v>
       </c>
       <c r="D131">
-        <v>3467.444308392603</v>
+        <v>3463.465508392603</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -54657,7 +54657,7 @@
         <v>13</v>
       </c>
       <c r="D155">
-        <v>989.8</v>
+        <v>851.228</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -54825,7 +54825,7 @@
         <v>13</v>
       </c>
       <c r="D167">
-        <v>1018.22</v>
+        <v>875.6691999999999</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -57050,7 +57050,7 @@
         <v>13</v>
       </c>
       <c r="D131">
-        <v>6268.486553627312</v>
+        <v>6280.011353627312</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -57386,7 +57386,7 @@
         <v>13</v>
       </c>
       <c r="D155">
-        <v>1315.16</v>
+        <v>1131.0376</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -57554,7 +57554,7 @@
         <v>13</v>
       </c>
       <c r="D167">
-        <v>1232.84</v>
+        <v>1060.2424</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -59793,7 +59793,7 @@
         <v>13</v>
       </c>
       <c r="D131">
-        <v>10602.30447624467</v>
+        <v>10656.08687624467</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -60129,7 +60129,7 @@
         <v>13</v>
       </c>
       <c r="D155">
-        <v>1926.68</v>
+        <v>1656.9448</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -60297,7 +60297,7 @@
         <v>13</v>
       </c>
       <c r="D167">
-        <v>1542.52</v>
+        <v>1326.5672</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -62522,7 +62522,7 @@
         <v>13</v>
       </c>
       <c r="D131">
-        <v>46244.5379311522</v>
+        <v>49182.5387311522</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -62858,7 +62858,7 @@
         <v>13</v>
       </c>
       <c r="D155">
-        <v>25517.24</v>
+        <v>21944.8264</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -63026,7 +63026,7 @@
         <v>13</v>
       </c>
       <c r="D167">
-        <v>4531.52</v>
+        <v>3897.1072</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -65265,7 +65265,7 @@
         <v>13</v>
       </c>
       <c r="D131">
-        <v>3044.771674537696</v>
+        <v>3065.351674537696</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -65601,7 +65601,7 @@
         <v>13</v>
       </c>
       <c r="D155">
-        <v>2554.86</v>
+        <v>2197.1796</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -65769,7 +65769,7 @@
         <v>13</v>
       </c>
       <c r="D167">
-        <v>2407.86</v>
+        <v>2070.7596</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -68008,7 +68008,7 @@
         <v>13</v>
       </c>
       <c r="D131">
-        <v>117046.1885894737</v>
+        <v>114656.5761894737</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -68344,7 +68344,7 @@
         <v>13</v>
       </c>
       <c r="D155">
-        <v>15588.86</v>
+        <v>13406.4196</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -68512,7 +68512,7 @@
         <v>13</v>
       </c>
       <c r="D167">
-        <v>32657.52</v>
+        <v>28085.4672</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -70751,7 +70751,7 @@
         <v>13</v>
       </c>
       <c r="D131">
-        <v>39523.79955561878</v>
+        <v>39250.90875561878</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -71087,7 +71087,7 @@
         <v>13</v>
       </c>
       <c r="D155">
-        <v>2315.74</v>
+        <v>1991.5364</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -71255,7 +71255,7 @@
         <v>13</v>
       </c>
       <c r="D167">
-        <v>4264.96</v>
+        <v>3667.8656</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -73480,7 +73480,7 @@
         <v>13</v>
       </c>
       <c r="D131">
-        <v>30925.09799772404</v>
+        <v>32394.78439772404</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -73816,7 +73816,7 @@
         <v>13</v>
       </c>
       <c r="D155">
-        <v>13532.82</v>
+        <v>11638.2252</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -73984,7 +73984,7 @@
         <v>13</v>
       </c>
       <c r="D167">
-        <v>3035.06</v>
+        <v>2610.1516</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -76223,7 +76223,7 @@
         <v>13</v>
       </c>
       <c r="D131">
-        <v>22912.43387482219</v>
+        <v>23969.83427482219</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -76559,7 +76559,7 @@
         <v>13</v>
       </c>
       <c r="D155">
-        <v>22009.82</v>
+        <v>18928.4452</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -76727,7 +76727,7 @@
         <v>13</v>
       </c>
       <c r="D167">
-        <v>14456.96</v>
+        <v>12432.9856</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -78966,7 +78966,7 @@
         <v>13</v>
       </c>
       <c r="D131">
-        <v>12176.91861301177</v>
+        <v>12291.48061301177</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -79302,7 +79302,7 @@
         <v>13</v>
       </c>
       <c r="D155">
-        <v>2929.22</v>
+        <v>2519.1292</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -79470,7 +79470,7 @@
         <v>13</v>
       </c>
       <c r="D167">
-        <v>2110.92</v>
+        <v>1815.3912</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -81709,7 +81709,7 @@
         <v>13</v>
       </c>
       <c r="D131">
-        <v>13839.77373200569</v>
+        <v>14128.57973200569</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -82045,7 +82045,7 @@
         <v>13</v>
       </c>
       <c r="D155">
-        <v>3232.04</v>
+        <v>2779.5544</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -82213,7 +82213,7 @@
         <v>13</v>
       </c>
       <c r="D167">
-        <v>1169.14</v>
+        <v>1005.4604</v>
       </c>
     </row>
     <row r="168" spans="1:4">
